--- a/02012019.xlsx
+++ b/02012019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taforyou/go/excelize-echo-postgres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D25ECC2-9C42-DE45-82B9-9E9CA5B7E606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC46F3DA-1BE9-C64C-8E39-32722C8FD1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="65" uniqueCount="54">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="67" uniqueCount="53">
   <si>
     <t>INVESTTXID</t>
   </si>
@@ -162,21 +162,9 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>PF023</t>
-  </si>
-  <si>
-    <t>S/A SCB023</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>WITHDRAW</t>
-  </si>
-  <si>
-    <t>Redemption</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -186,14 +174,23 @@
     <t>N</t>
   </si>
   <si>
-    <t>Redemption per unit = 9.5014 (NAV 31/01/2019)</t>
+    <t>DPAR001</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>KSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +324,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -670,9 +673,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,9 +1034,14 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="45" max="45" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1172,137 +1181,140 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>17438</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1">
+        <v>17622</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1">
+        <v>282</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2">
-        <v>1744</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="d">
+        <v>2019-02-06</v>
+      </c>
+      <c r="M2" s="2" t="d">
+        <v>2019-02-08</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5300</v>
+      </c>
+      <c r="P2" s="1">
+        <v>27.25</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>144425</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="1">
+        <v>231.8</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>15.16</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>144193.20000000001</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>144193.20000000001</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="AF2" s="1">
+        <v>1065</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1065</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="d">
-        <v>2019-02-01</v>
-      </c>
-      <c r="M2" s="1" t="d">
-        <v>2019-02-01</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2">
-        <v>631485.88630000001</v>
-      </c>
-      <c r="P2">
-        <v>6000000</v>
-      </c>
-      <c r="Q2">
-        <v>0.375</v>
-      </c>
-      <c r="R2">
-        <v>6000000</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>6000000</v>
-      </c>
-      <c r="AA2">
-        <v>6000000</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO2" s="1" t="d">
-        <v>2019-01-31T18:31:02.00000024400651375</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>53</v>
+      <c r="AO2" s="2" t="d">
+        <v>2019-02-06T15:52:52.99999992828816150</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/02012019.xlsx
+++ b/02012019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taforyou/go/excelize-echo-postgres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC46F3DA-1BE9-C64C-8E39-32722C8FD1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1269BB62-9039-6A40-83B1-F2419072CC84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="5620" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="67" uniqueCount="53">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="151" uniqueCount="62">
   <si>
     <t>INVESTTXID</t>
   </si>
@@ -165,6 +165,9 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>WITHDRAW</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -184,6 +187,30 @@
   </si>
   <si>
     <t>KSS</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>SCBS</t>
+  </si>
+  <si>
+    <t>DTAC</t>
+  </si>
+  <si>
+    <t>PHATRA</t>
+  </si>
+  <si>
+    <t>S/A SCBDPAR001</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Payment management fee for Jan 2019</t>
+  </si>
+  <si>
+    <t>Payment custodian fee for Jan 2019</t>
   </si>
 </sst>
 </file>
@@ -1032,151 +1059,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="45" max="45" width="15.1640625" customWidth="1"/>
+    <col min="45" max="45" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1188,13 +1215,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>282</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>45</v>
@@ -1206,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>45</v>
@@ -1266,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF2" s="1">
         <v>1065</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>45</v>
@@ -1290,16 +1317,16 @@
         <v>1065</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO2" s="2" t="d">
         <v>2019-02-06T15:52:52.99999992828816150</v>
@@ -1315,6 +1342,550 @@
       </c>
       <c r="AS2" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>17690</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>287</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="d">
+        <v>2019-02-08</v>
+      </c>
+      <c r="M3" s="2" t="d">
+        <v>2019-02-12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2400</v>
+      </c>
+      <c r="P3" s="1">
+        <v>48.75</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>117000</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="U3" s="1">
+        <v>187.79</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12.29</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>116812.21</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>116812.21</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>683</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>683</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="2" t="d">
+        <v>2019-02-08T15:29:33.99999978952109625</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17709</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1083</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="d">
+        <v>2019-02-08</v>
+      </c>
+      <c r="M4" s="2" t="d">
+        <v>2019-02-12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3600</v>
+      </c>
+      <c r="P4" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>171000</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>365.94</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>23.94</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>170634.06</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>170634.06</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>17</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="2" t="d">
+        <v>2019-02-08T16:09:37.00000014156102825</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>17471</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4884</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="2" t="d">
+        <v>2019-02-06</v>
+      </c>
+      <c r="M5" s="2" t="d">
+        <v>2019-02-06</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2103.92</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2103.92</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>147.27000000000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2251.19</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2251.19</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="2" t="d">
+        <v>2019-02-06T10:55:34.99999986961483725</v>
+      </c>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>17472</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4884</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="d">
+        <v>2019-02-06</v>
+      </c>
+      <c r="M6" s="2" t="d">
+        <v>2019-02-06</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1337.5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1337.5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="2" t="d">
+        <v>2019-02-06T10:55:34.99999986961483725</v>
+      </c>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
